--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823065.038245678</v>
+        <v>1820771.442789085</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>55.30808199371976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.22004634314</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.85466372793699</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>376.2274714067198</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>28.90798465780235</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>98.12640288586348</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525746</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5146946421462</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039625</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377049</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>119.6383426943775</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389242</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137125</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>36.39209596079228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611471121</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>181.9855643708012</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541111</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340471</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788178581</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4346,13 +4346,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4361,19 +4361,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1588.383781964454</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1588.383781964454</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.383781964454</v>
+        <v>918.016117921866</v>
       </c>
     </row>
     <row r="3">
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.7205539329318</v>
+        <v>349.0604424885611</v>
       </c>
       <c r="C4" t="n">
-        <v>758.7843710050249</v>
+        <v>349.0604424885611</v>
       </c>
       <c r="D4" t="n">
-        <v>608.6677315926892</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="E4" t="n">
-        <v>460.754638010296</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="F4" t="n">
-        <v>460.754638010296</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="G4" t="n">
-        <v>292.7681733185747</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>144.0292751820809</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7205539329318</v>
+        <v>758.6984582168182</v>
       </c>
       <c r="X4" t="n">
-        <v>927.7205539329318</v>
+        <v>530.7089073188008</v>
       </c>
       <c r="Y4" t="n">
-        <v>927.7205539329318</v>
+        <v>530.7089073188008</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796252</v>
+        <v>1935.366530930993</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796252</v>
+        <v>1566.404013990581</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796252</v>
+        <v>1208.138315383831</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796252</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>510.7845510900176</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>95.71210093501406</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>95.71210093501406</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912078</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906805</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1935.366530930993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1828.176969415903</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1539.074102541547</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1284.38961433566</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W7" t="n">
-        <v>994.9724442986994</v>
+        <v>843.1598980861129</v>
       </c>
       <c r="X7" t="n">
-        <v>766.9828934006821</v>
+        <v>615.1703471880955</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.190314257152</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3118.015220960539</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2786.952333616968</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5069,7 +5069,7 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.5373202159311</v>
+        <v>734.6461798836041</v>
       </c>
       <c r="C13" t="n">
-        <v>821.6011372880242</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>671.4844978756885</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>523.5714042932954</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396422</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359461</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159311</v>
+        <v>916.2946447138438</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.9487421954783</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0125592675714</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133969</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330935</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2343.157686942974</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1290.379337067265</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.389786169248</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.597207025718</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876679</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.963121559761</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>411.963121559761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>-1.598721155460225e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092294</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.78270532855373</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.8818764268411</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.6341900408523</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.414155035098</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>43.72409101823598</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492601</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864789023</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194311</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419413</v>
       </c>
     </row>
     <row r="12">
@@ -26314,40 +26314,40 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312007</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768916</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768916</v>
-      </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26451,7 +26451,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645952</v>
+        <v>-791416.7717645953</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.3333917722</v>
+        <v>153696.3333917716</v>
       </c>
       <c r="D6" t="n">
-        <v>357135.0750038781</v>
+        <v>357135.0750038784</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377227</v>
+        <v>108307.080912287</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.2806450785</v>
+        <v>433719.5427196425</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450778</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="J6" t="n">
-        <v>266149.1028350952</v>
+        <v>266114.3649096598</v>
       </c>
       <c r="K6" t="n">
-        <v>384644.1879390233</v>
+        <v>384609.4500135878</v>
       </c>
       <c r="L6" t="n">
-        <v>433754.280645078</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="M6" t="n">
-        <v>348699.252709566</v>
+        <v>348664.5147841303</v>
       </c>
       <c r="N6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.542719642</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450778</v>
+        <v>433719.542719642</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196422</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726976</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>293.9328867236932</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08655370166417</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>12.94193147596357</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>5.702898665541966</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.6689451151236</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>121.4225463903057</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413336</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>45.48047731675581</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,10 +28141,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.207266606532238e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28302,10 +28302,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="V13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305184</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>474.0150488837096</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561594</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
